--- a/needles_schema_mapping_registry.xlsx
+++ b/needles_schema_mapping_registry.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/3.20_plaintiff_udf.sql</t>
+          <t>scripts/needles/2_case/dev/3.20_plaintiff_udf.sql</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/3.21_incident_udf.sql</t>
+          <t>scripts/needles/2_case/dev/3.21_incident_udf.sql</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.00_std_Calendar.sql</t>
+          <t>scripts/needles/3_misc/4.00_std_Calendar.sql</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.00_std_DefaultDefendant.sql</t>
+          <t>scripts/needles/3_misc/4.00_std_DefaultDefendant.sql</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.01_std_User-Contact.sql</t>
+          <t>scripts/needles/3_misc/4.01_std_User-Contact.sql</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.02_std_CaseNames.sql</t>
+          <t>scripts/needles/3_misc/4.02_std_CaseNames.sql</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.03_std_OtherCaseRelatedContacts.sql</t>
+          <t>scripts/needles/3_misc/4.03_std_OtherCaseRelatedContacts.sql</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/4.05_std_Miscellany.sql</t>
+          <t>scripts/needles/3_misc/4.05_std_Miscellany.sql</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.00_intake_cases.sql</t>
+          <t>scripts/needles/4_intake/5.00_intake_cases.sql</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.02_intake_CaseStaff.sql</t>
+          <t>scripts/needles/4_intake/5.02_intake_CaseStaff.sql</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.02_intake_Incident.sql</t>
+          <t>scripts/needles/4_intake/5.02_intake_Incident.sql</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.07_intake_ReferredBy.sql</t>
+          <t>scripts/needles/4_intake/5.07_intake_ReferredBy.sql</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.08_intake_updateContactAddress.sql</t>
+          <t>scripts/needles/4_intake/5.08_intake_updateContactAddress.sql</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/5.09_intake_Plaintiffs.sql</t>
+          <t>scripts/needles/4_intake/5.09_intake_Plaintiffs.sql</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/91__AllContactInfo.sql</t>
+          <t>scripts/needles/1_contact/91__AllContactInfo.sql</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/counsel__Attorneys.sql</t>
+          <t>scripts/needles/2_case/counsel__Attorneys.sql</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/calendar__Calendar_Case.sql</t>
+          <t>scripts/needles/2_case/calendar__Calendar_Case.sql</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__CaseStaff.sql</t>
+          <t>scripts/needles/2_case/cases__CaseStaff.sql</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/class__CaseStatus.sql</t>
+          <t>scripts/needles/2_case/class__CaseStatus.sql</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/0_init/create__CaseTypeMixture.sql</t>
+          <t>scripts/needles/0_init/create__CaseTypeMixture.sql</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/01__CaseTypeMap__CaseTypes.sql</t>
+          <t>scripts/needles/2_case/01__CaseTypeMap__CaseTypes.sql</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__CaseUDF.sql</t>
+          <t>scripts/needles/2_case/cases__CaseUDF.sql</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_case__CaseUDF.sql</t>
+          <t>scripts/needles/2_case/user_case__CaseUDF.sql</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/user_tab5__CaseUDF (2).sql</t>
+          <t>scripts/needles/2_case/dev/user_tab5__CaseUDF (2).sql</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/insurance__CaseValue.sql</t>
+          <t>scripts/needles/2_case/insurance__CaseValue.sql</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/0_init/create__CaseValueMapping.sql</t>
+          <t>scripts/needles/0_init/create__CaseValueMapping.sql</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/03__cases__Cases.sql</t>
+          <t>scripts/needles/2_case/03__cases__Cases.sql</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__Courts.sql</t>
+          <t>scripts/needles/2_case/cases__Courts.sql</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__CriticalComments.sql</t>
+          <t>scripts/needles/2_case/cases__CriticalComments.sql</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__CriticalDeadlines.sql</t>
+          <t>scripts/needles/2_case/cases__CriticalDeadlines.sql</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_party__DefendantUDF.sql</t>
+          <t>scripts/needles/2_case/user_party__DefendantUDF.sql</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/user_party__DefendantUDF.sql</t>
+          <t>scripts/needles/2_case/dev/user_party__DefendantUDF.sql</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/05__party__Defendants.sql</t>
+          <t>scripts/needles/2_case/05__party__Defendants.sql</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__Disbursements.sql</t>
+          <t>scripts/needles/2_case/value_tab__Disbursements.sql</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_party__Employment.sql</t>
+          <t>scripts/needles/2_case/user_party__Employment.sql</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__Incident.sql</t>
+          <t>scripts/needles/2_case/cases__Incident.sql</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/IncidentUDF.sql</t>
+          <t>scripts/needles/2_case/dev/IncidentUDF.sql</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/user_tab10__IncidentUDF.sql</t>
+          <t>scripts/needles/4_intake/user_tab10__IncidentUDF.sql</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/20__Address__IndvContacts.sql</t>
+          <t>scripts/needles/1_contact/20__Address__IndvContacts.sql</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/31__ContactNumbers__IndvContacts.sql</t>
+          <t>scripts/needles/1_contact/31__ContactNumbers__IndvContacts.sql</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/40__EmailWebsite__IndvContacts.sql</t>
+          <t>scripts/needles/1_contact/40__EmailWebsite__IndvContacts.sql</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/92__IndvOrgContacts_Indexed.sql</t>
+          <t>scripts/needles/1_contact/92__IndvOrgContacts_Indexed.sql</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/insurance__Insurance.sql</t>
+          <t>scripts/needles/2_case/insurance__Insurance.sql</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/IntakeUDF.sql</t>
+          <t>scripts/needles/4_intake/IntakeUDF.sql</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/police__Investigations.sql</t>
+          <t>scripts/needles/2_case/police__Investigations.sql</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab1__Investigations_CaseWitness.sql</t>
+          <t>scripts/needles/2_case/user_tab1__Investigations_CaseWitness.sql</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab3__LienTracking.sql</t>
+          <t>scripts/needles/2_case/user_tab3__LienTracking.sql</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__LienTracking.sql</t>
+          <t>scripts/needles/2_case/value_tab__LienTracking.sql</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab1__Litigation_Depositions.sql</t>
+          <t>scripts/needles/2_case/user_tab1__Litigation_Depositions.sql</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__MedicalProviders.sql</t>
+          <t>scripts/needles/2_case/value_tab__MedicalProviders.sql</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab2__MedicalProviders_MedicalRequest.sql</t>
+          <t>scripts/needles/2_case/user_tab2__MedicalProviders_MedicalRequest.sql</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__NeedlesUserFields.sql</t>
+          <t>scripts/needles/initialize_needles/create__NeedlesUserFields.sql</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__NeedlesUserFields_intake.sql</t>
+          <t>scripts/needles/initialize_needles/create__NeedlesUserFields_intake.sql</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/negotiations__Negotiations.sql</t>
+          <t>scripts/needles/2_case/negotiations__Negotiations.sql</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/notes__Notes.sql</t>
+          <t>scripts/needles/2_case/notes__Notes.sql</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/21__Address__OrgContacts.sql</t>
+          <t>scripts/needles/1_contact/21__Address__OrgContacts.sql</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/32__ContactNumbers__OrgContacts.sql</t>
+          <t>scripts/needles/1_contact/32__ContactNumbers__OrgContacts.sql</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/40__EmailWebsite__OrgContacts.sql</t>
+          <t>scripts/needles/1_contact/40__EmailWebsite__OrgContacts.sql</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab10__Other1UDF (IntakeUDF).sql</t>
+          <t>scripts/needles/2_case/user_tab10__Other1UDF (IntakeUDF).sql</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/0_init/create__PartyRoles.sql</t>
+          <t>scripts/needles/0_init/create__PartyRoles.sql</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab9__PlaintifFUDF.sql</t>
+          <t>scripts/needles/2_case/user_tab9__PlaintifFUDF.sql</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/04__party__Plaintiff.sql</t>
+          <t>scripts/needles/2_case/04__party__Plaintiff.sql</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_party__PlaintiffUDF.sql</t>
+          <t>scripts/needles/2_case/user_party__PlaintiffUDF.sql</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__Referral_Attorney.sql</t>
+          <t>scripts/needles/2_case/value_tab__Referral_Attorney.sql</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/cases__Referral_OtherReferral.sql</t>
+          <t>scripts/needles/2_case/cases__Referral_OtherReferral.sql</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/20__Referral__ReferredOut.sql</t>
+          <t>scripts/needles/2_case/dev/20__Referral__ReferredOut.sql</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/companion_cases__RelatedCases.sql</t>
+          <t>scripts/needles/2_case/companion_cases__RelatedCases.sql</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/20__SOLChecklist.sql</t>
+          <t>scripts/needles/2_case/dev/20__SOLChecklist.sql</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__Settlements.sql</t>
+          <t>scripts/needles/2_case/value_tab__Settlements.sql</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/value_tab__SpDamages.sql</t>
+          <t>scripts/needles/2_case/value_tab__SpDamages.sql</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/02__PartyRoleMap__SubRole.sql</t>
+          <t>scripts/needles/2_case/02__PartyRoleMap__SubRole.sql</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/case_checklist__Tasks.sql</t>
+          <t>scripts/needles/2_case/case_checklist__Tasks.sql</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab5__UDF_Grid_1.sql</t>
+          <t>scripts/needles/2_case/user_tab5__UDF_Grid_1.sql</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/90__Uniqueness.sql</t>
+          <t>scripts/needles/1_contact/90__Uniqueness.sql</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/15__Users.sql</t>
+          <t>scripts/needles/1_contact/15__Users.sql</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/_dev_SOLChecklist.sql</t>
+          <t>scripts/needles/2_case/dev/_dev_SOLChecklist.sql</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/00__add_breadcrumbs_to_implementation_users.sql</t>
+          <t>scripts/needles/1_contact/00__add_breadcrumbs_to_implementation_users.sql</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/22__Address__appendix.sql</t>
+          <t>scripts/needles/1_contact/22__Address__appendix.sql</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/update__case_intake.sql</t>
+          <t>scripts/needles/initialize_needles/update__case_intake.sql</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__case_notes_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__case_notes_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__cases_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__cases_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__checklist_dir_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__checklist_dir_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/05__IndvContacts__comments.sql</t>
+          <t>scripts/needles/1_contact/05__IndvContacts__comments.sql</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/11__OrgContacts__comments.sql</t>
+          <t>scripts/needles/1_contact/11__OrgContacts__comments.sql</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/99__Notes__contacts.sql</t>
+          <t>scripts/needles/1_contact/99__Notes__contacts.sql</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__counsel_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__counsel_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/dev/dev_documents.sql</t>
+          <t>scripts/needles/3_misc/dev/dev_documents.sql</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/00__insert_fallback_contacts.sql</t>
+          <t>scripts/needles/1_contact/00__insert_fallback_contacts.sql</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/04__IndvContacts__insurance.sql</t>
+          <t>scripts/needles/1_contact/04__IndvContacts__insurance.sql</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__insurance_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__insurance_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/01__IndvContacts__names.sql</t>
+          <t>scripts/needles/1_contact/01__IndvContacts__names.sql</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/10__OrgContacts__names.sql</t>
+          <t>scripts/needles/1_contact/10__OrgContacts__names.sql</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/0_init/sa__office.sql</t>
+          <t>scripts/needles/0_init/sa__office.sql</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__party_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__party_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/02__IndvContacts__police.sql</t>
+          <t>scripts/needles/1_contact/02__IndvContacts__police.sql</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/sampleGridUDFInsert.sql</t>
+          <t>scripts/needles/2_case/dev/sampleGridUDFInsert.sql</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/03__IndvContacts__staff.sql</t>
+          <t>scripts/needles/1_contact/03__IndvContacts__staff.sql</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/udf__starter.sql</t>
+          <t>scripts/needles/2_case/dev/udf__starter.sql</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/3_misc/update_contact_types.sql</t>
+          <t>scripts/needles/3_misc/update_contact_types.sql</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/CaseUDF__upgraded.sql</t>
+          <t>scripts/needles/2_case/dev/CaseUDF__upgraded.sql</t>
         </is>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/user_party_base.sql</t>
+          <t>scripts/needles/2_case/dev/user_party_base.sql</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other1UDF__user_tab1.sql</t>
+          <t>scripts/needles/2_case/dev/Other1UDF__user_tab1.sql</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other10UDF__user_tab10.sql</t>
+          <t>scripts/needles/2_case/dev/Other10UDF__user_tab10.sql</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other2UDF__user_tab2.sql</t>
+          <t>scripts/needles/2_case/dev/Other2UDF__user_tab2.sql</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other3UDF__user_tab3.sql</t>
+          <t>scripts/needles/2_case/dev/Other3UDF__user_tab3.sql</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other4UDF__user_tab4.sql</t>
+          <t>scripts/needles/2_case/dev/Other4UDF__user_tab4.sql</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other5UDF__user_tab5.sql</t>
+          <t>scripts/needles/2_case/dev/Other5UDF__user_tab5.sql</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other6UDF__user_tab6.sql</t>
+          <t>scripts/needles/2_case/dev/Other6UDF__user_tab6.sql</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other7UDF__user_tab7.sql</t>
+          <t>scripts/needles/2_case/dev/Other7UDF__user_tab7.sql</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other8UDF__user_tab8.sql</t>
+          <t>scripts/needles/2_case/dev/Other8UDF__user_tab8.sql</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Other9UDF__user_tab9.sql</t>
+          <t>scripts/needles/2_case/dev/Other9UDF__user_tab9.sql</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/user_tab_base.sql</t>
+          <t>scripts/needles/2_case/dev/user_tab_base.sql</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__user_tab_map.sql</t>
+          <t>scripts/needles/initialize_needles/create__user_tab_map.sql</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/30__ContactNumbers__utility.sql</t>
+          <t>scripts/needles/1_contact/30__ContactNumbers__utility.sql</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/50__Disbursements__value.sql</t>
+          <t>scripts/needles/2_case/dev/50__Disbursements__value.sql</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/50__LienTracking__value.sql</t>
+          <t>scripts/needles/2_case/dev/50__LienTracking__value.sql</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/50__MedicalProviders__value.sql</t>
+          <t>scripts/needles/2_case/dev/50__MedicalProviders__value.sql</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/50__Settlements__value.sql</t>
+          <t>scripts/needles/2_case/dev/50__Settlements__value.sql</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/50__SpDamages__value.sql</t>
+          <t>scripts/needles/2_case/dev/50__SpDamages__value.sql</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>scripts/needles/discovery/create__value_indexed.sql</t>
+          <t>scripts/needles/initialize_needles/create__value_indexed.sql</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab/01__Defendants__load__party.sql</t>
+          <t>scripts/needles/2_case/user_tab/01__Defendants__load__party.sql</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/user_tab/01__Plaintiff__load__party.sql</t>
+          <t>scripts/needles/2_case/user_tab/01__Plaintiff__load__party.sql</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/user_tab/IndvContacts__load__user_party.sql</t>
+          <t>scripts/needles/1_contact/user_tab/IndvContacts__load__user_party.sql</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Litigation__Deposition__user_tab.sql</t>
+          <t>scripts/needles/2_case/dev/Litigation__Deposition__user_tab.sql</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/1_contact/user_tab/OrgContacts__load__employer.sql</t>
+          <t>scripts/needles/1_contact/user_tab/OrgContacts__load__employer.sql</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/PlaintiffUDF__user_party__user_tab (2).sql</t>
+          <t>scripts/needles/2_case/dev/PlaintiffUDF__user_party__user_tab (2).sql</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/PlaintiffUDF__user_party__user_tab.sql</t>
+          <t>scripts/needles/2_case/dev/PlaintiffUDF__user_party__user_tab.sql</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Referral__LawyerReferral__load.sql</t>
+          <t>scripts/needles/2_case/dev/Referral__LawyerReferral__load.sql</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Referral__OtherReferral__load.sql</t>
+          <t>scripts/needles/2_case/dev/Referral__OtherReferral__load.sql</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Referral__PaidAdvertisement__load.sql</t>
+          <t>scripts/needles/2_case/dev/Referral__PaidAdvertisement__load.sql</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/Referral__ReferredOut__load.sql</t>
+          <t>scripts/needles/2_case/dev/Referral__ReferredOut__load.sql</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/4_intake/dev/udf__IncidentUDF__intake_fields.sql</t>
+          <t>scripts/needles/4_intake/dev/udf__IncidentUDF__intake_fields.sql</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/udf__PlaintiffUDF__ds.sql</t>
+          <t>scripts/needles/2_case/dev/udf__PlaintiffUDF__ds.sql</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/udf__PlaintiffUDF__user_party (2).sql</t>
+          <t>scripts/needles/2_case/dev/udf__PlaintiffUDF__user_party (2).sql</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>scripts/needles/conversion/2_case/dev/udf__PlaintiffUDF__user_party.sql</t>
+          <t>scripts/needles/2_case/dev/udf__PlaintiffUDF__user_party.sql</t>
         </is>
       </c>
     </row>
